--- a/data/long_bre/P23_2-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_2-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,39</t>
+          <t>-11,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-29,82%</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,57%</t>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-30,11%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-21,72%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>67,83%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 3,03</t>
+          <t>-27,81; 1,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 5,35</t>
+          <t>-18,11; 5,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 10,32</t>
+          <t>-4,92; 21,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,53; 24,47</t>
+          <t>-19,85; 13,94</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-56,16; 6,11</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-53,46; 26,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-28,01; 329,28</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-58,98; 98,85</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,36</t>
+          <t>12,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>21,06</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32,82%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-14,07%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61,69%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 26,96</t>
+          <t>-3,63; 27,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 18,87</t>
+          <t>-8,79; 18,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 90,9</t>
+          <t>-25,09; 9,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 43,44</t>
+          <t>0,71; 41,1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-7,27; 94,96</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-14,45; 42,08</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-38,29; 22,2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 205,24</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>-18,92</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,59%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8,63%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-3,99%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-44,21%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 8,78</t>
+          <t>-12,88; 12,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 12,6</t>
+          <t>-9,68; 11,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 48,59</t>
+          <t>-17,26; 15,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 106,92</t>
+          <t>-40,67; -1,17</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-41,59; 77,4</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-40,92; 102,59</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-41,69; 77,42</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-73,03; -1,42</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 16,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 20,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 84,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 106,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,95</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,86</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-19,98%</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38,54%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 6,17</t>
+          <t>-7,26; 17,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 0,87</t>
+          <t>-0,65; 20,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 16,51</t>
+          <t>-6,65; 15,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 2,05</t>
+          <t>-27,47; 18,73</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-22,6; 85,68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 109,14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-30,02; 158,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-61,91; 148,13</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>-9,12</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-10,75</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>-8,18</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-20,4%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-21,25%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-10,13%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-16,38%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 19,59</t>
+          <t>-26,11; 5,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 10,7</t>
+          <t>-25,48; 1,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 95,86</t>
+          <t>-26,88; 10,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,28; 64,51</t>
+          <t>-34,86; 15,26</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-47,78; 16,59</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-41,93; 3,76</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-37,47; 22,35</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-50,6; 47,69</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-11,82</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-29,59%</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29,11%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,63; -1,52</t>
+          <t>-11,72; 19,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 10,09</t>
+          <t>-10,92; 11,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-47,44; -3,23</t>
+          <t>-11,48; 18,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 39,75</t>
+          <t>-14,02; 25,41</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-30,33; 93,03</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-35,89; 63,3</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-34,03; 103,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-37,33; 214,44</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 9,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 34,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 29,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>12,12</t>
+          <t>-10,6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-26,55%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,83%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>39,91%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10,59%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 23,03</t>
+          <t>-21,66; 0,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 8,61</t>
+          <t>-9,82; 8,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 114,46</t>
+          <t>-2,04; 20,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 39,02</t>
+          <t>-9,98; 15,24</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-46,22; 1,97</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-25,04; 34,78</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 107,79</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-34,13; 90,89</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-14,86%</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>-8,59</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,5%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-19,34%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 5,3</t>
+          <t>-9,79; 10,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 8,37</t>
+          <t>-10,61; 8,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 19,54</t>
+          <t>-7,08; 14,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 29,64</t>
+          <t>-23,05; 4,21</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-25,54; 40,17</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-22,4; 27,05</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,08; 53,81</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-44,83; 10,48</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>10,23</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>-13,7</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,51%</t>
+          <t>6,12</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>37,58%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-32,04%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 7,73</t>
+          <t>-3,78; 20,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 6,68</t>
+          <t>-9,97; 9,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 24,16</t>
+          <t>-24,13; -2,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 18,83</t>
+          <t>-7,39; 19,76</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-12,52; 101,7</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-31,37; 44,99</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-49,0; -7,54</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-19,39; 82,89</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 16,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 9,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 66,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 47,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,86%</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>-3,75</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-13,59%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-1,11%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>20,72%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-12,02%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 8,42</t>
+          <t>-14,95; 4,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 13,25</t>
+          <t>-10,32; 7,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 35,9</t>
+          <t>-3,85; 15,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 56,97</t>
+          <t>-16,16; 9,57</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-38,7; 16,79</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-25,7; 27,38</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-12,34; 75,18</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-42,59; 40,72</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-10,88%</t>
+          <t>15,32</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-10,24%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-7,31%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-15,46%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>54,13%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 8,98</t>
+          <t>-14,7; 5,29</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 5,12</t>
+          <t>-12,61; 5,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 25,11</t>
+          <t>-18,58; 4,35</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 13,19</t>
+          <t>1,91; 28,95</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-32,2; 15,02</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-27,24; 14,71</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-39,67; 14,86</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>5,59; 138,82</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>-11,57</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>28,96%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>13,42%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-28,59%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 16,22</t>
+          <t>-0,64; 18,01</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 9,38</t>
+          <t>-4,57; 11,8</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 72,54</t>
+          <t>-9,75; 10,2</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 43,18</t>
+          <t>-27,1; 2,25</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 74,39</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-16,49; 55,21</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-24,3; 35,35</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-54,75; 9,15</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-13,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-27,28%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 18,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 7,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 96,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>13,55</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-5,33%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 26,33</t>
+          <t>-12,15; 9,79</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 12,69</t>
+          <t>-5,59; 13,71</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 157,56</t>
+          <t>-8,48; 13,32</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 39,35</t>
+          <t>-14,36; 10,75</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-35,63; 46,53</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-17,19; 61,26</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-29,73; 73,22</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-46,57; 68,52</t>
         </is>
       </c>
     </row>
@@ -1548,27 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>-12,22</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-21,97%</t>
+          <t>-2,87</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-8,88%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-12,53%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-30,63%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-7,49%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 12,77</t>
+          <t>-15,75; 7,84</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 3,57</t>
+          <t>-16,31; 4,07</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-38,49; 62,46</t>
+          <t>-24,05; 0,78</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 13,32</t>
+          <t>-16,39; 11,05</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-32,02; 20,96</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-32,94; 10,34</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-51,89; 1,83</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-35,16; 38,47</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-6,59</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-18,46%</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>17,02%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>25,02%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-11,95; -1,08</t>
+          <t>-6,31; 15,55</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,77</t>
+          <t>-8,12; 11,19</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-29,94; -3,02</t>
+          <t>-3,25; 21,16</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 25,57</t>
+          <t>-10,91; 17,55</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-18,76; 69,45</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-25,81; 48,61</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 66,62</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-22,52; 57,57</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 2,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 20,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 6,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-9,72</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>-10,04</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-21,91%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>27,94%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>-29,93%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>-29,33%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 9,56</t>
+          <t>-29,05; 3,35</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,17</t>
+          <t>-4,73; 18,29</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 39,1</t>
+          <t>-22,38; 5,14</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 17,62</t>
+          <t>-28,49; 6,24</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-51,24; 12,36</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; 99,12</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-61,3; 27,61</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-65,11; 28,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>11,3</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>15,31</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>42,36%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-2,41%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>71,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 25,23</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-12,6; 10,41</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; 16,7</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 33,24</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 132,0</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-27,05; 31,91</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-33,4; 77,31</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; 253,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-6,07</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-5,27</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-5,46%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-17,48%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>16,04%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>-11,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-14,17; 10,68</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-18,12; 5,44</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; 21,09</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-23,61; 14,57</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-38,76; 50,99</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-43,01; 21,67</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-19,81; 68,76</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-44,99; 40,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-5,46</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-15,61%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>-7,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-10,91; -0,3</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 6,43</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 8,61</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 4,2</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-28,31; -0,89</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 25,0</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 43,78</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-30,44; 18,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-3,05</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-4,77</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-6,78%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-11,34%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>11,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-5,28; 5,42</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-7,75; 1,6</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-11,63; 1,24</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 11,6</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-12,9; 15,73</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-16,07; 4,0</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-24,79; 3,43</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; 35,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>-5,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 9,7</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 5,04</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 6,43</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-9,27; 5,12</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 39,75</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-12,36; 21,4</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-13,09; 20,51</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-22,75; 15,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_2-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_2-Edad-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1400,7 +1400,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1596,7 +1596,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1692,7 +1692,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -1888,7 +1888,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -1984,7 +1984,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2180,7 +2180,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2276,7 +2276,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2472,7 +2472,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2568,7 +2568,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
